--- a/xlsx/现代索纳塔_intext.xlsx
+++ b/xlsx/现代索纳塔_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_现代索纳塔</t>
+    <t>韩语</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_现代索纳塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E6%B1%BD%E8%BD%A6</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E4%BA%8B%E5%BE%97626</t>
   </si>
   <si>
-    <t>萬事得626</t>
+    <t>万事得626</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E8%B1%B9</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國環境保護署</t>
+    <t>美国环境保护署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AE%E8%83%8E</t>
